--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/24_Çorum_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/24_Çorum_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6CB1DB1-55D3-45D8-8DE2-17FD5BD9F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9402EB23-D121-4F14-9381-B8CA7A48B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{9B34A486-0CDF-4B7C-8699-745538D5017D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{429BB194-3AAA-42AA-B94A-E20A2EB05171}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3E575E6F-9B4B-438B-B45A-0E3F58A30531}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FAD8BA90-2AF3-4DE8-9854-72AAEE01D8B5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{878B1B11-6774-44E2-B7A4-7BDE449BB349}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{32D4E1D9-478F-4FC7-9FF7-F08C62B598EF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{41C4726D-9BD7-4DB2-8C4A-344C4FFEBBCA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3A87C0D7-D3D3-46A5-946A-41E2B2BE194E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{97682D07-614D-4E52-9234-AAAFAF999F4F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{719A51E2-F247-4688-9FA3-9240EC8F947A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E4260203-36E2-4063-97AF-2528402F043E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{21221653-F826-45F9-825B-846C1FEC40EC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0437C97C-75F0-43EE-AA92-7A6922C1C60F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{914C912C-B449-4C08-A0DF-B00875848220}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{30DAA63C-36E5-42C8-AC78-381F77605A37}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A20A0A6A-F437-451A-8977-4A84DF3421AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F9C0B4-99CA-4431-8482-9F03C6F0C9C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063A7E8A-098F-4DF1-90D4-3DE3498EEC11}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2548,18 +2548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45C9F56C-C7B5-43A7-B394-DE31246CF911}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14058084-D1A8-4AA1-9860-C0EC98B981AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31171818-4766-4432-A2D3-08328AC46788}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D7A3A89-A4ED-46B5-9064-25EE74AAD168}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8B3F4BD-3FD6-4006-814D-7DD5F6B2365A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29812907-00C5-4297-B804-FE3B98BA0C8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41295334-8AC3-4A33-AC19-F04BB1F4A443}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41592BA8-6E7D-4271-B86C-BA68BCA6B05E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B4E912B-45AB-4C73-9F8B-B9406AE18E00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3E2DA33-D51D-442F-800C-965E7F755D04}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2C68983-6F28-4554-B370-AF3477825C4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D5A5D9F-238B-405F-8C25-807E2281B371}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69C194AB-80C1-4B21-9D03-1C4206B2CD45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2882B32-16E8-4403-8BC5-5375DB1E779A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C21AAB7-146C-4CB1-9956-F9354F375259}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D33D4DBD-15FE-4917-A3BC-41B43668A5BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54E12E92-5FF5-4B64-9E72-42DF78BEBAC5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51269631-03F8-483B-84F0-08E91BBF3A0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A588A747-48AC-4489-B1CC-4A3E855F695A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49C3A4DC-F78F-443A-884D-FF513F794858}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1CECA46-F6F0-4621-8E31-4F3C1F4920E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD9AA578-16CE-4D6E-A0CE-F72A3A96C8ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{706E78FF-2054-487A-A5DE-0A2BFB7F57E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3764166-1A57-49C4-A77C-199EF95E23F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8838EC-640C-4D11-8EDF-DC2886006BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6EA96E-C26B-4BD1-8DC8-003024DB0B9F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3792,18 +3792,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFD7971E-0017-46DF-94D5-F718EBC94CEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98C4294D-676F-4A36-86FD-AA287A2DC3D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{051BDD2E-6C8B-4B4C-B960-A99909A4DDC9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9F16A66-23BD-4131-93D2-429D11B78DE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B10D9AD2-AC9F-4346-A21B-5A1B4F652726}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B39F341D-D533-4FD3-BE87-94789F8F10B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0506569-BBD5-446C-A380-C52B79233F94}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0371E5C-D74C-4871-B78C-3BDDB94EED76}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB55FD19-D93F-4C2A-8144-688A154CFB1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49DECA8C-64CF-4BCF-A233-9A234C05FDCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF43C0CB-02A7-4909-B7BD-353483131FAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E8E6388-5B52-4B86-82EF-1D3167757C1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FB4D3F7-3697-4F18-8F10-19AD1A9EF815}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16E52087-10A3-4764-9C0B-7F5898D894FA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44CCD7FA-5CE9-4E20-BD98-663D2F820A35}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{069429DE-98C1-49EA-9391-385A1A3189F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3776E958-AB57-4EA6-B71C-EF57BC96B8C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB1AF9FE-231E-4193-B756-0E7AAB88176C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56043EB8-066D-4623-A096-F4EB620A01DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A406809F-08B6-4ABE-A6D8-E5F905823B56}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E518B265-EEAF-4DD8-A00E-5A021CFFC650}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90B85F9F-8E17-4913-B7CC-8301BA866458}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B55D92D-F9B5-4AB0-A7E5-C36C25495254}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31315564-ADD9-4B5E-9F8F-D06C375813ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7EC774-4C38-4644-AFB3-6263C56CE88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAD564C-7A2B-4787-AC24-D55FE768EAF5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5032,18 +5032,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CDFEAC0-6551-4A95-80B3-326EBD0A8DB7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{917A6624-C582-449B-AE27-A6F55C5274F8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81FA8707-ED51-4EE9-ACDD-33B9F08AFD8C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{323018BB-F667-4945-B757-A03F16DD8477}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{608865D8-D198-4A90-8183-5B0BDC284058}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C228BF0B-47DF-40F1-83E2-10108C3AE84A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E7D24EF-D4B1-4EF2-9A77-6A9CF4D71012}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A9F5D72-52E1-4223-A3F4-AE6E93EB4EBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2AE849D-B1E7-4206-ADEF-CAAB2D2EBFAE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E4A4BC0-8FD3-4AEB-BDA0-2B169D639CE3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56EB990C-82E9-4F94-8ABD-86407C17AC37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF36F369-A911-4FC8-890F-0C3DFDD40BF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AC1F23E-5687-4A8C-B80B-0061111C7919}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25E75224-1DFF-4AED-B38D-5BE7B02D5F0D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8304320-ACF3-4CF9-8A46-9E33DA7AC920}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A3E03A9-1F2F-4ACB-AEC8-81A5FDAFCEE6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D33EF718-6CC0-4DE3-A709-06D161F818DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A6F2EDC-EA54-4714-81CC-968DC3E9304B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C25B85DA-272F-45E3-96FE-87632622360C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACF89244-1409-4AAC-B8C5-F26020BF9A5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5EE8B80-26A8-4C1C-A0D2-EFE3C6F185BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF778AC5-FD21-495C-BD16-E5AA1CE3D6C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{987D14EA-845E-4A95-A6CC-2EF2CE991273}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18136269-34C3-4089-ADD0-355B520BF478}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5056,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16825F1C-1749-43F5-977E-D118D76DCFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A3410F-FB0E-4216-99AC-CF3DB3E6ED8D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6264,18 +6264,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B4C07C7-9A60-4688-84C0-4ED034B83B2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3659DA66-E4C7-40BA-897D-B8DF56B5BA20}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C2F12EE-8281-45D0-B101-6B944C718312}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29E0AF94-CA2B-4649-ACC8-0DD428A0C653}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09538968-8708-45CB-A851-9421F79BC686}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31103B38-2DBB-4A80-A2B4-4601991BBDA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{601AFCA4-D47F-4659-B5EC-14DACF0DB602}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{274666D8-6665-472C-83BD-2D17A77D8F7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41AF74A2-E139-46A2-8C54-A96FB3ECAF6F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{962EBDAC-4097-493D-BE79-2722898E3EBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FD04024-D47D-4243-8C22-15769D37C447}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2154E24A-4A99-4261-95A5-A919FAEE0F0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8994C89-957C-4626-95BA-84FA28E4B42D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B279589-011C-493D-8EE8-9A257C071AF3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B9A7F10-0EA4-4C82-B9F5-1146B7A3FDFD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE8B26BF-B73D-46FE-A82A-376E2EF6782D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{281E7DC7-EB4D-4565-8844-529A7D805256}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3782763-E6C3-4A4A-8E1C-F00444FD1D5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B6C3B43-E11D-4FCC-9183-C6D456218768}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C32BBD3-6126-4F6B-BB2B-B0C959AB57CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD065AED-2F8D-4B6E-B0B3-B694ECF99CC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B9BA54E-1DCC-4E43-B0AA-3B9C912E4251}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F47A6B6B-5CC6-4B33-B57D-39788408AF80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{210B2FB1-40DB-43FE-AFEF-1D2673B00750}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6288,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401AF55F-2FD9-4CFD-B552-CF6917E50063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA40EB3-28AD-412F-8FBE-EE1F803C02C5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7521,18 +7521,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5427DE47-ABB3-4049-8A7B-712D3A086243}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57879D86-23FF-400F-A65F-265A16EA1E76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B22E5329-9DD9-4AE4-AC6F-4CC0FF7D686A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5ACE2B40-7FFA-43AB-B947-31856BF81412}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C3C8C78-52F5-4501-BD50-51CD62ECFD88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{950407C8-9FF7-4CEB-9CCD-6152EEE91609}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3968FFA2-2C3F-42F5-A823-65DEA73D47E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA0C28E6-344E-4406-A029-68FD69B249C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9729E638-7B0A-4376-8F95-7C64EFF9E146}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6F9AE95-D70C-410F-94AD-C7EBF0024742}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{233413AF-C869-40AB-9CA5-ECFA7EFD91FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EDA0494-2E14-4B1E-AD5B-4FD083D89ACF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C54D37D-4208-43C7-AEB3-524969BCC5B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F395DDF-9F26-4685-B533-146F77F583A3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61CB00D1-409F-494C-9A6A-EC2B0637B4D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FE9EC86E-779E-47AE-999A-5451C435560B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{962C56B6-0107-4A2F-9FCA-106B9AE341CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63D5976D-96FD-4B63-BFD3-0CCCE0A0A539}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B6DDCCE-C706-48FD-9F8C-A2BE6A7E8A0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E7B47BC-C686-4590-8487-1C8C9CD3DDA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26D89114-9B8E-4EE9-BCDD-AEF0512136EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68C9028E-A26E-495D-837B-7A56658ED5F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F5F2D36-C95F-41FB-8F73-BE24EB6C5F44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27EB007A-4422-4103-9593-2CC522605C7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7545,7 +7545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443DBCE1-B47B-4EC2-BFA5-375E00D84A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEECC77B-C306-4ACD-A5DA-E093A941AAD7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8778,18 +8778,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9020E6A6-0EBC-42B5-A4E3-7F3C0E4A1859}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E81EE070-BA96-4A7A-A58E-3FB79420C7D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06A6835A-9710-4226-8A68-8CC799BF812D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{690B9366-0FF3-4F87-A49D-885D2EF4F439}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D32BFF9C-23ED-400E-BD1A-CADEEE3DC337}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BBC6EAD-4A35-4F70-B07D-852647BD4616}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFE06FA4-8AB7-4A1D-A2E0-09E7C0D7AE59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DE96DC3-9A91-4D06-BCBF-DF8553A16462}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEE3E8C9-4770-4F56-BC2D-04161D38E6BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6482748B-FB99-49F8-8EF3-5C2CB8B8EC47}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E782B73D-88DE-4E87-82B9-2C7A56E51FB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB4306CE-C121-4B16-88A4-BE49EBE2A20E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93E238B0-A957-4C96-8871-F804E009DA62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{833762F0-0A6C-4A10-A0F9-D1C14FB812B3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D833D8C5-A4F7-4AB4-BB51-F2145D0F9E73}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3D18476-1138-4109-8CE6-07FC5EEC4097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B75AEBB4-F75C-4562-B85F-32DE42B69880}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D878C97D-96D8-49AB-A1A9-3636BC102550}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{609AF498-DF0A-4B5A-A60A-BD7003F285D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{661F7240-F6D2-4167-8652-6A4ED2610686}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E03E8BDE-87EA-42E4-BD2C-0D7ABAF80EFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{456A6858-B9F0-4BEC-A841-A01C2B1660E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9189908A-B673-4816-826B-CBCB76C41826}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F53680A-EE4D-44D6-8455-EFC2F2A9CD37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8802,7 +8802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967E9E1-083D-4210-8F07-4BD1E78923F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0C6B93-538B-4125-855D-91CABFEC66A2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10035,18 +10035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD2B2C02-3A19-47F1-835C-59022BCCE367}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55BE3490-9B33-4A77-A575-5B26BD9B2769}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E30D053F-3570-4967-A510-3FC892D923D4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7532B178-0B91-429B-8C41-E05B919DEAE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18866A08-F931-4AD1-A747-7DD44BEF4C9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1E3887B-6EF9-4768-9BFD-C36F774691AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59F35412-4657-4260-A1FF-5CC997C2296E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC0141BB-75CE-4B3A-B137-43BE285451F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41CFFCFF-5719-49DD-8C5A-DF590A57CBF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62CD793B-1D67-4F36-BC6B-1D3116048C86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{908A17A5-37F3-47CE-81FB-307CD04995B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{728532AA-2A61-4E14-9715-315E817D9DCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B8FEB26-93C8-41DD-BDAF-5B6E748D00C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08E3CF9E-E79F-4651-9A87-F8E12DDA9765}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED5ABA9A-EB1D-4CB1-AB30-2DF657255035}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B94BD8D-D929-4491-B32E-0C47CFD9B6C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5745528-8AE5-421A-B610-B570FCE97893}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E249B25D-197D-47C5-B3DF-CD9690FD3EEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9563CDAC-50FD-4431-AB4B-F6A9D97E239E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B385B4D-5C81-4783-8A8D-788C9A207F1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A345E6F-F449-4280-BBE5-9C687CF9ED87}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30E4A5BC-5BAF-43E5-BCC7-B668B22841F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47C27A72-DBF0-48EC-8BBE-5B42A40688C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAA34EE9-C171-4371-A9E5-99BA2848F2AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10059,7 +10059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60991D14-B8AC-471E-90F0-F6F956F01191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A7214-A245-4A1E-AC39-E8E5A6478A57}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11286,18 +11286,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E7728C2-5893-4D25-B72B-577B615BC587}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7A77720-BC2D-4298-BEB6-6D07C36A286A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA89C3AC-9153-4BA3-BCCA-5A2078465883}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6CFC552C-EFEF-46C1-8BF2-0F509A767DBA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5D6453B-C8C4-4DD1-BA82-2A7B134ED1C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FA2F85C-2563-4DC4-9442-19BC974F4A6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C996BC5-1824-4395-BABA-F1B162818435}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{203EEF41-A436-43B4-AB4D-D73510D201A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57C2D60A-85D6-423D-B5B2-A0BB23F8AA28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5DBDA76-7C33-4452-9F36-7E9BA120E341}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C361139B-F553-4BA7-AA75-9C5DA8A6DD69}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07AA406E-2506-4661-88D7-842F23F7F549}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AAD5D6C-7197-4BB3-B184-BEBFCCE6F098}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0394C96A-7272-428C-A9AB-E70BC589B66A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0936A9D-F90A-43EA-B3AD-E586D96C42C7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25F80D54-5C25-4C6A-B5D7-54E759FE50BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00BDBC3A-16B2-474B-8E2E-9DD8D0216A33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82EE1A58-AD19-4612-8244-E8ACFC004805}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97257390-8F43-4009-BABD-2D0F5FFE2CF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98846DD5-53F4-4DBE-8C6E-FCB23D236B81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C139E55-889F-47BC-B8AC-2604724D33E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45F29DF5-C70D-4B03-BFC7-3427722B37D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3858140-7AD0-421D-95AF-ADA5CC965859}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A10A645-71C7-41BC-A1C0-1F96B4173E2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11310,7 +11310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836A217C-83CF-4AF7-BE61-4A2BCD6F097B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFF3607-44A8-4990-922E-35D943315884}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12533,18 +12533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEABC9C4-F366-40E5-9F1C-39AA61729DC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0C05EA8-20D1-45B4-95CC-8E0468F0783B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C0FA4F64-E3C8-47B9-835F-9FBB632ED9C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA75753C-8D6A-4338-AC62-E183D8F50D44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBCA52E8-B985-4DFB-9D65-806378FF2C35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3491D7E-A8BE-4082-BF51-67E05A099D5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2986FC3-11A6-452F-9949-544B0AA474B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B341BC8-E974-43C5-8D37-5290912FFC9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22C32859-663C-48E8-8E93-BE5F34122664}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB26181C-C291-4298-98BA-51FE698E3DA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{398E36AA-14C8-4CDB-BA94-952B593B5241}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B390467A-D895-484F-8CDD-3ADC08A73960}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D311CB8-4689-46CC-8D73-58D5CCA15AE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76133330-B4E6-4636-A7E8-5E4F4C1BF310}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A1DEA1A-DA7E-419C-874D-2D0FDFF7A9A0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C39D99AC-A2F7-4DA6-B5AA-A1224C963BA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C4ADBC7-5AB6-44DE-8DEB-EC41FDC828B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7C48F88-7F6E-4520-AEAB-0E95305C0904}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31337FC1-9F82-4594-B5A3-F18CF6339FF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04C9FE40-029A-4A41-AC0A-01844197B089}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6128379D-8484-4ADE-8557-2D3CCBD141E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F61A65C-B16F-45DD-B770-156691D84DCD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2DDF71B-1B3A-44F8-AD2E-8D9286AE0E14}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD8666A9-AB8B-4523-88FF-C5E8A4CC2316}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12557,7 +12557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8820431F-5331-4D73-8022-832F5160F6B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D90222-3DC3-4A03-92F6-B7F26C3BE98E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13776,18 +13776,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEF7F743-B5E8-4A58-AD2C-07AA76CB74A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB1EEFFC-2812-495F-A2F5-3EBB2AFE8C39}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EC2E55D-74AD-4ABB-8EAB-611A8F307EC9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D2B0790-B652-449B-949D-C1014B4BE87F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54B2D21D-D1D0-4138-86F3-32D69147F147}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAC78A5A-7C35-47DB-9F09-06E3EDDCEF80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8985C0-FC67-48EB-AA8C-F64DD93D7D81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0BDAFE4-4963-4BC9-A8A4-0507A4626832}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5FF2634-647B-429F-BC87-F7A6912AF139}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02355483-A9F8-4AC3-B48D-00DEB48FB801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F237006-3474-4B53-B3AA-D2D17A261AEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F5C0529-D0FC-48E0-951C-978B3D9F99F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE6DAD68-7824-4D67-A807-2B3F7308CBA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80AEDF94-FF0A-4001-8954-737223EAA30F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D04C79A-75B2-42BB-A597-44246B97FBCB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{603A816B-4900-47B0-8734-78847C90562B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6067865-6A76-419F-95DD-9D77BBFA33F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{039679F2-F30F-4FF2-886F-9ABC1F115796}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2682332-A3D6-4A78-9784-53345BCE6AFD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B7495F3-0FA7-4233-A5FF-CCEADF2D2213}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF0C3C41-D718-479B-B3F1-AA43A2D18216}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54D34D14-502F-4498-A409-7C61BE2ABFCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0A4FC11-8303-4D58-A118-C3533DC4CC23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A684591-6228-4F73-B2CE-3FF1D0487B5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13800,7 +13800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA169114-1330-451E-A4C7-18ED8138B058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E3FFED-6D4C-420A-A7BC-34F8BE0AD94A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15021,18 +15021,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{968C999C-1AAA-4714-8331-42986380F623}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97409A4C-244E-4127-8931-8833496D52A1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{60E5AF06-A220-49F0-B920-0FEACEF70FCB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA6E7D6D-BF05-4EBE-8D25-48C778C557CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{549E0A20-204B-4288-A035-CAE1AE0972EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C8C18B3-C74F-4FCD-81BF-9A2725562207}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B0A8EEE-6EBE-4965-9BC7-6CA4FAFACE53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B09D0D4C-94CF-4CF4-BB64-04E5A7FB6BA2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B94B28E7-35E4-4E73-9608-2C7AFC3EB724}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E61A92B-F206-4374-9B81-FC98EDF7D076}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48D0284F-0283-49DF-BAB5-D02EAA95F9A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{576B1E4C-C757-4007-9873-7695DBE29417}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36FE79A8-744D-448D-A32E-4B117BD17BDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D76F39AB-E71F-4E91-90E8-4E1297E72B36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A12EAAF-2D09-4BAA-93B9-23E50128F5BB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06B60D1C-D7F0-4189-9816-9EDF880D2626}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4ABA03A7-8FAE-4679-9515-0B62A0041886}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E580EE8-33BB-4F35-AD11-D6DB989F4446}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7579ADB1-B24F-4474-A3B6-F2B96336F7F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20936560-2135-4CD4-A41B-C9918AF8BB1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FEC1D4C-3946-4E46-84EA-88EFA745326B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD3D8CE0-A4D5-4CB7-B670-C2B4FB3F3887}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FE54B5A-0A78-4976-9EA3-475531830D3C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE43883A-6499-4850-8D5E-2A909C3AC3C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15045,7 +15045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF355D35-4D1C-440A-8591-F3AB5C5CD087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A3696-27DB-4B3E-927A-AA437E72D478}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16266,18 +16266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4F3CA3D-433D-4B1B-855B-88E32D1B65CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54AFD506-D5E0-4BBD-992B-0F4E74DE43A8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35C2E2E7-B39F-4466-B4E7-CC6F6753D4FC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{092D7A70-4B69-4ADF-A3AE-337BE87ED538}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3A31DDB-F185-408B-BF63-59DB2BFD86F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1219511-FE04-4E4A-A4E3-1F30277FB93F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48314F6A-9645-42FD-8EEE-22064060819F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C9D6EF5-67C5-43D9-9C97-57BFAF9AD81D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4F47715-511F-477E-AB05-AB3580E24DA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E26DB927-34AD-4E76-8652-443A457B1C2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24953F8C-CFF5-4B77-8338-C92EC16BC4A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA65AFB2-50F3-443F-9C6A-028D0E12816D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6D488DC-229F-418C-9E21-56BADA583DC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{059C5D52-EB78-4C3F-B041-BB445FBE724C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF126D06-6C2F-40C3-A273-93D8DEB09449}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F59E3FD-CCB3-456C-91D8-B373FD13DB52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{707EACB1-FDA6-4713-8FB7-AF5E4427920E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A747FDD4-38A2-4E39-A2CE-F48E1D66684E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E524519-1754-4B50-927C-1759475DCFBB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1864E3BA-62C5-4F9D-B400-45B3A09BCB69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FAAEE23-A785-45DA-BB6A-8EA2885B6D10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59667AD4-D324-46D1-B68E-D685E6E386A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D296D01D-AC63-430D-92B6-B7CDAA404FEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2798C79-8CFA-4565-A451-643425DBD509}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
